--- a/cases/templates/template.xlsx
+++ b/cases/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Run</t>
@@ -42,133 +42,139 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>Headers是否加密</t>
+    <t>Headers Crypto</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Request Data Type</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Request Data Crypto</t>
+  </si>
+  <si>
+    <t>Extract Request Data</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Regex Params List</t>
+  </si>
+  <si>
+    <t>Retrieve Value</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Expection</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>非BIP用户登录</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/auth/loginByNotBip</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+  </si>
+  <si>
+    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+  </si>
+  <si>
+    <t>{"code":"0","type":"success","data":{"id":"216842211109845591","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ded60e24b209a7daea07a9f6225e608e","type":"user","avatar":null,"ncAccount":null,"timestamp":1684221110,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216317749963825419","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"104966","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/order","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>安全大屏</t>
+  </si>
+  <si>
+    <t>大盘-隐患类型数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>劳务基础配置</t>
+  </si>
+  <si>
+    <t>绑定TV</t>
+  </si>
+  <si>
+    <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
+  </si>
+  <si>
+    <t>查询配置</t>
+  </si>
+  <si>
+    <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
   </si>
   <si>
     <t>params</t>
-  </si>
-  <si>
-    <t>request_data_type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>请求参数是否加密</t>
-  </si>
-  <si>
-    <t>提取请求参数</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>正则表达式</t>
-  </si>
-  <si>
-    <t>正则变量</t>
-  </si>
-  <si>
-    <t>绝对路径表达式</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>sql变量</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>响应结果</t>
-  </si>
-  <si>
-    <t>断言结果</t>
-  </si>
-  <si>
-    <t>报错日志</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>非BIP用户登录</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/auth/loginByNotBip</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-  </si>
-  <si>
-    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-  </si>
-  <si>
-    <t>{"code":"0","type":"success","data":{"id":"216842211109845591","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ded60e24b209a7daea07a9f6225e608e","type":"user","avatar":null,"ncAccount":null,"timestamp":1684221110,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216317749963825419","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"104966","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/order","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>安全大屏</t>
-  </si>
-  <si>
-    <t>大盘-隐患类型数据</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>劳务基础配置</t>
-  </si>
-  <si>
-    <t>绑定TV</t>
-  </si>
-  <si>
-    <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-  </si>
-  <si>
-    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-  </si>
-  <si>
-    <t>{"tvSequence": "$..tvSequence"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
-  </si>
-  <si>
-    <t>查询配置</t>
-  </si>
-  <si>
-    <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
   </si>
   <si>
     <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
@@ -246,10 +252,10 @@
   </si>
   <si>
     <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+Extract Request Data：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式 Regex:  正则表达式Regex Params List： r'"id": (\d+), "name": "(\w+)",'
 正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+Retrieve Value: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
 jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
 Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
 </t>
@@ -291,7 +297,7 @@
             }
     }
 该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-那么sql变量可以这么写来提取参数:{"total": "$.select_sale[0].total", "total_1": "$..total"}</t>
+那么Sql Params Dict可以这么写来提取参数:{"total": "$.select_sale[0].total", "total_1": "$..total"}</t>
   </si>
   <si>
     <t>如何使用已提取的参数：</t>
@@ -1034,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1071,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1203,6 +1212,34 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1211,34 +1248,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="4" tint="0.4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2086,29 +2095,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:X97">
   <tableColumns count="24">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
-    <tableColumn id="2" name="name" dataDxfId="1"/>
-    <tableColumn id="3" name="description" dataDxfId="2"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="2"/>
     <tableColumn id="4" name="Run" dataDxfId="3"/>
     <tableColumn id="24" name="Time" dataDxfId="4"/>
     <tableColumn id="5" name="Method" dataDxfId="5"/>
     <tableColumn id="6" name="Url" dataDxfId="6"/>
     <tableColumn id="7" name="Headers" dataDxfId="7"/>
-    <tableColumn id="17" name="Headers是否加密" dataDxfId="8"/>
-    <tableColumn id="23" name="params" dataDxfId="9"/>
-    <tableColumn id="16" name="request_data_type" dataDxfId="10"/>
+    <tableColumn id="17" name="Headers Crypto" dataDxfId="8"/>
+    <tableColumn id="23" name="Params" dataDxfId="9"/>
+    <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
     <tableColumn id="8" name="Request Data" dataDxfId="11"/>
-    <tableColumn id="9" name="请求参数是否加密" dataDxfId="12"/>
-    <tableColumn id="22" name="提取请求参数" dataDxfId="13"/>
+    <tableColumn id="9" name="Request Data Crypto" dataDxfId="12"/>
+    <tableColumn id="22" name="Extract Request Data" dataDxfId="13"/>
     <tableColumn id="10" name="Jsonpath" dataDxfId="14"/>
-    <tableColumn id="11" name="正则表达式" dataDxfId="15"/>
-    <tableColumn id="12" name="正则变量" dataDxfId="16"/>
-    <tableColumn id="13" name="绝对路径表达式" dataDxfId="17"/>
+    <tableColumn id="11" name="Regex" dataDxfId="15"/>
+    <tableColumn id="12" name="Regex Params List" dataDxfId="16"/>
+    <tableColumn id="13" name="Retrieve Value" dataDxfId="17"/>
     <tableColumn id="14" name="SQL" dataDxfId="18"/>
-    <tableColumn id="15" name="sql变量" dataDxfId="19"/>
-    <tableColumn id="18" name="预期结果" dataDxfId="20"/>
-    <tableColumn id="19" name="响应结果" dataDxfId="21"/>
-    <tableColumn id="20" name="断言结果" totalsRowFunction="count" dataDxfId="22"/>
-    <tableColumn id="21" name="报错日志" dataDxfId="23"/>
+    <tableColumn id="15" name="Sql Params Dict" dataDxfId="19"/>
+    <tableColumn id="18" name="Expection" dataDxfId="20"/>
+    <tableColumn id="19" name="Response" dataDxfId="21"/>
+    <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="21" name="Log" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2383,8 +2392,8 @@
   <sheetPr/>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
@@ -2406,7 +2415,7 @@
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:24">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2424,7 +2433,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2436,7 +2445,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2500,17 +2509,20 @@
       <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="R2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>28</v>
+      <c r="U2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:24">
@@ -2518,23 +2530,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2542,12 +2554,12 @@
         <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -2555,16 +2567,16 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>28</v>
+      <c r="V3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:24">
@@ -2572,17 +2584,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
@@ -2594,16 +2606,16 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="115.5" customHeight="1" spans="1:24">
@@ -2611,44 +2623,44 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:24">
@@ -2656,59 +2668,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="5:24">
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>28</v>
+      <c r="U7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="5:5">
@@ -2730,37 +2742,51 @@
       <c r="E13" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="27" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W$1:W$1048576">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A$1:X$1048576">
-    <cfRule type="containsBlanks" dxfId="26" priority="8">
+  <conditionalFormatting sqref="B1:X1 A2:X1048576">
+    <cfRule type="containsBlanks" dxfId="27" priority="16">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="25" priority="18">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1 D2:D5 D8:D13 D14:E1048576">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2811,28 +2837,28 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2840,25 +2866,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:8">
@@ -2866,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2888,7 +2914,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b0f73e3-654c-4686-9832-8155456ae32c}</x14:id>
+          <x14:id>{0e299e14-11cc-4254-af2a-ef458dc271ae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2911,7 +2937,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1bb0d9e2-ea78-46f5-a61f-ecdc3265761f}</x14:id>
+          <x14:id>{6a01c9dd-2505-42f0-be44-664a230a0ac9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2934,7 +2960,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ecbc2680-2f05-43ef-8d39-fdebfa3bc317}</x14:id>
+          <x14:id>{2b25a24b-63c1-4464-9459-484285a28b96}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2957,7 +2983,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9439d3f8-11a7-48c5-8bd2-1f5482f23ae9}</x14:id>
+          <x14:id>{ebf1866d-65b6-43fb-94dd-bc8173870007}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2983,7 +3009,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eccf28fa-8d22-452f-ad80-d6a633a36fe3}</x14:id>
+          <x14:id>{7900243d-e30a-45ae-a448-7bdaa7be6b1f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3006,7 +3032,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b44e91f-87cb-4881-b378-2545255e60c0}</x14:id>
+          <x14:id>{89e93202-a29f-4d9a-b5e1-23e448d72337}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3029,7 +3055,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39731d0a-257c-4a9d-831e-fedcd137b909}</x14:id>
+          <x14:id>{093d13d8-263f-4221-a541-223c2392df19}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3049,7 +3075,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ab077ab9-4084-4f49-add8-a0c71545becb}</x14:id>
+          <x14:id>{6ee93b9c-4f28-4850-9bad-d4097cd13ffb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3069,7 +3095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f78ce3d-e52c-4504-9226-30f7362d730f}</x14:id>
+          <x14:id>{31be5aae-633d-4e48-b198-1f7726278a9b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3086,7 +3112,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9091f0e-3c05-4979-920b-93c3747dde27}</x14:id>
+          <x14:id>{30bceca7-7987-4f1d-a588-b5a78bf75d19}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3109,7 +3135,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8ecfe21d-aaf0-43da-a6c9-8a4a645360aa}</x14:id>
+          <x14:id>{b1fa868f-78de-49f9-93fa-324361a95924}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3130,7 +3156,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1b0f73e3-654c-4686-9832-8155456ae32c}">
+          <x14:cfRule type="dataBar" id="{0e299e14-11cc-4254-af2a-ef458dc271ae}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3140,7 +3166,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1bb0d9e2-ea78-46f5-a61f-ecdc3265761f}">
+          <x14:cfRule type="dataBar" id="{6a01c9dd-2505-42f0-be44-664a230a0ac9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3150,7 +3176,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ecbc2680-2f05-43ef-8d39-fdebfa3bc317}">
+          <x14:cfRule type="dataBar" id="{2b25a24b-63c1-4464-9459-484285a28b96}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3160,7 +3186,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9439d3f8-11a7-48c5-8bd2-1f5482f23ae9}">
+          <x14:cfRule type="dataBar" id="{ebf1866d-65b6-43fb-94dd-bc8173870007}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3170,7 +3196,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eccf28fa-8d22-452f-ad80-d6a633a36fe3}">
+          <x14:cfRule type="dataBar" id="{7900243d-e30a-45ae-a448-7bdaa7be6b1f}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3180,7 +3206,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0b44e91f-87cb-4881-b378-2545255e60c0}">
+          <x14:cfRule type="dataBar" id="{89e93202-a29f-4d9a-b5e1-23e448d72337}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3190,7 +3216,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39731d0a-257c-4a9d-831e-fedcd137b909}">
+          <x14:cfRule type="dataBar" id="{093d13d8-263f-4221-a541-223c2392df19}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3200,7 +3226,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ab077ab9-4084-4f49-add8-a0c71545becb}">
+          <x14:cfRule type="dataBar" id="{6ee93b9c-4f28-4850-9bad-d4097cd13ffb}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3210,7 +3236,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f78ce3d-e52c-4504-9226-30f7362d730f}">
+          <x14:cfRule type="dataBar" id="{31be5aae-633d-4e48-b198-1f7726278a9b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3220,7 +3246,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a9091f0e-3c05-4979-920b-93c3747dde27}">
+          <x14:cfRule type="dataBar" id="{30bceca7-7987-4f1d-a588-b5a78bf75d19}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3230,7 +3256,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8ecfe21d-aaf0-43da-a6c9-8a4a645360aa}">
+          <x14:cfRule type="dataBar" id="{b1fa868f-78de-49f9-93fa-324361a95924}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3250,8 +3276,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -3266,30 +3292,30 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3298,41 +3324,41 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3340,7 +3366,7 @@
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3348,30 +3374,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" dxfId="27" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" dxfId="27" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/cases/templates/template.xlsx
+++ b/cases/templates/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>Id</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Headers Crypto</t>
   </si>
   <si>
-    <t>Params</t>
+    <t>Query Str</t>
   </si>
   <si>
     <t>Request Data Type</t>
@@ -102,9 +102,6 @@
     <t>json</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -120,7 +117,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>/auth/loginByNotBip</t>
+    <t>/login</t>
   </si>
   <si>
     <t>{"Content-Type": "application/json"}</t>
@@ -129,10 +126,16 @@
     <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
   </si>
   <si>
-    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-  </si>
-  <si>
-    <t>{"code":"0","type":"success","data":{"id":"216842211109845591","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ded60e24b209a7daea07a9f6225e608e","type":"user","avatar":null,"ncAccount":null,"timestamp":1684221110,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216317749963825419","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"104966","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/order","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+    <t>{"BSP_TOKEN": "$.data.bspToken"}</t>
+  </si>
+  <si>
+    <t>"msg":"(.+?)"</t>
+  </si>
+  <si>
+    <t>["msg"]</t>
+  </si>
+  <si>
+    <t>{"code":"0","type":"success","data":{"bspToken":"ded60e24b209a7daea07a9f6225e608e"},"msg":"2023","succeed":true}</t>
   </si>
   <si>
     <t>PASS</t>
@@ -153,13 +156,13 @@
     <t>绑定TV</t>
   </si>
   <si>
-    <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-  </si>
-  <si>
-    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+    <t>/addTvSequence?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}","msg":"{{msg}}"}</t>
   </si>
   <si>
     <t>{"tvSequence": "$..tvSequence"}</t>
@@ -171,13 +174,13 @@
     <t>查询配置</t>
   </si>
   <si>
-    <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+    <t>/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
   </si>
   <si>
     <t>params</t>
   </si>
   <si>
-    <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
+    <t>{"code":200,"success":true,"data":{"manageDeparts":[]},"msg":"操作成功"}</t>
   </si>
   <si>
     <t>TIME</t>
@@ -210,10 +213,10 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>https://bimdc.bzlrobot.com</t>
-  </si>
-  <si>
-    <t>/bsp/test/user/ugs</t>
+    <t>https://baidu.com</t>
+  </si>
+  <si>
+    <t>/test</t>
   </si>
   <si>
     <t>{
@@ -229,10 +232,10 @@
   </si>
   <si>
     <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8=",
-"{{projectId}}":"104966",
-"{{tenant}}":"216317749963825419"
+"{{account}}":"18100000000",
+     "{{passwd}}": "/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthN",
+"{{projectId}}":"12345",
+"{{tenant}}":"123456"
 }</t>
   </si>
   <si>
@@ -1040,7 +1043,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1071,9 +1074,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2103,7 +2103,7 @@
     <tableColumn id="6" name="Url" dataDxfId="6"/>
     <tableColumn id="7" name="Headers" dataDxfId="7"/>
     <tableColumn id="17" name="Headers Crypto" dataDxfId="8"/>
-    <tableColumn id="23" name="Params" dataDxfId="9"/>
+    <tableColumn id="23" name="Query Str" dataDxfId="9"/>
     <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
     <tableColumn id="8" name="Request Data" dataDxfId="11"/>
     <tableColumn id="9" name="Request Data Crypto" dataDxfId="12"/>
@@ -2392,8 +2392,8 @@
   <sheetPr/>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
@@ -2403,19 +2403,19 @@
     <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
     <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.5851851851852" style="10" customWidth="1"/>
     <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.44444444444444" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.2222222222222" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.2740740740741" style="3" customWidth="1"/>
     <col min="13" max="13" width="23.1037037037037" style="3" customWidth="1"/>
     <col min="14" max="24" width="14.7777777777778" style="3" customWidth="1"/>
     <col min="25" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:24">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2433,7 +2433,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2445,7 +2445,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2509,20 +2509,17 @@
       <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>29</v>
+      <c r="V2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:24">
@@ -2530,23 +2527,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2554,29 +2551,33 @@
         <v>27</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>29</v>
+      <c r="V3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:24">
@@ -2584,17 +2585,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
@@ -2606,16 +2607,16 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="115.5" customHeight="1" spans="1:24">
@@ -2623,44 +2624,44 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:24">
@@ -2668,59 +2669,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="5:24">
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="U7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>29</v>
+      <c r="U7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="5:5">
@@ -2819,7 +2820,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2837,28 +2838,28 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2866,25 +2867,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:8">
@@ -2892,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2914,7 +2915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e299e14-11cc-4254-af2a-ef458dc271ae}</x14:id>
+          <x14:id>{36986a7d-55c3-4e23-8623-f64a32b6f57e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2937,7 +2938,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a01c9dd-2505-42f0-be44-664a230a0ac9}</x14:id>
+          <x14:id>{1c616edf-29d8-42c4-9d62-6a239cc478e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2960,7 +2961,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b25a24b-63c1-4464-9459-484285a28b96}</x14:id>
+          <x14:id>{727802f5-2157-4593-9695-92ae160f6685}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2983,7 +2984,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebf1866d-65b6-43fb-94dd-bc8173870007}</x14:id>
+          <x14:id>{528c7f05-7ff0-46f9-bb6f-de6c2d683b37}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3009,7 +3010,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7900243d-e30a-45ae-a448-7bdaa7be6b1f}</x14:id>
+          <x14:id>{e44822a1-3590-42af-a881-5e24cc39510b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3032,7 +3033,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89e93202-a29f-4d9a-b5e1-23e448d72337}</x14:id>
+          <x14:id>{137edcce-87a7-469d-a798-40cd7cf73e7e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3055,7 +3056,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{093d13d8-263f-4221-a541-223c2392df19}</x14:id>
+          <x14:id>{0a20ec49-3e4a-40b9-aabc-62b0b4c97f7e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3075,7 +3076,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ee93b9c-4f28-4850-9bad-d4097cd13ffb}</x14:id>
+          <x14:id>{acdb5446-4d0a-47ab-821a-b61a2d39858c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3095,7 +3096,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31be5aae-633d-4e48-b198-1f7726278a9b}</x14:id>
+          <x14:id>{035e25f3-918e-4f3b-904e-959b6d18a972}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3112,7 +3113,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30bceca7-7987-4f1d-a588-b5a78bf75d19}</x14:id>
+          <x14:id>{c518268b-70f8-4e31-8651-b7da2ebef12a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3135,7 +3136,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1fa868f-78de-49f9-93fa-324361a95924}</x14:id>
+          <x14:id>{71e09422-07ee-4f47-9ad3-f1c568e12555}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3147,7 +3148,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://bimdc.bzlrobot.com" tooltip="https://bimdc.bzlrobot.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://baidu.com" tooltip="https://baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -3156,7 +3157,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0e299e14-11cc-4254-af2a-ef458dc271ae}">
+          <x14:cfRule type="dataBar" id="{36986a7d-55c3-4e23-8623-f64a32b6f57e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3166,7 +3167,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a01c9dd-2505-42f0-be44-664a230a0ac9}">
+          <x14:cfRule type="dataBar" id="{1c616edf-29d8-42c4-9d62-6a239cc478e2}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3176,7 +3177,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b25a24b-63c1-4464-9459-484285a28b96}">
+          <x14:cfRule type="dataBar" id="{727802f5-2157-4593-9695-92ae160f6685}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3186,7 +3187,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ebf1866d-65b6-43fb-94dd-bc8173870007}">
+          <x14:cfRule type="dataBar" id="{528c7f05-7ff0-46f9-bb6f-de6c2d683b37}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3196,7 +3197,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7900243d-e30a-45ae-a448-7bdaa7be6b1f}">
+          <x14:cfRule type="dataBar" id="{e44822a1-3590-42af-a881-5e24cc39510b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3206,7 +3207,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89e93202-a29f-4d9a-b5e1-23e448d72337}">
+          <x14:cfRule type="dataBar" id="{137edcce-87a7-469d-a798-40cd7cf73e7e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3216,7 +3217,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{093d13d8-263f-4221-a541-223c2392df19}">
+          <x14:cfRule type="dataBar" id="{0a20ec49-3e4a-40b9-aabc-62b0b4c97f7e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3226,7 +3227,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ee93b9c-4f28-4850-9bad-d4097cd13ffb}">
+          <x14:cfRule type="dataBar" id="{acdb5446-4d0a-47ab-821a-b61a2d39858c}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3236,7 +3237,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31be5aae-633d-4e48-b198-1f7726278a9b}">
+          <x14:cfRule type="dataBar" id="{035e25f3-918e-4f3b-904e-959b6d18a972}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3246,7 +3247,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{30bceca7-7987-4f1d-a588-b5a78bf75d19}">
+          <x14:cfRule type="dataBar" id="{c518268b-70f8-4e31-8651-b7da2ebef12a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3256,7 +3257,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1fa868f-78de-49f9-93fa-324361a95924}">
+          <x14:cfRule type="dataBar" id="{71e09422-07ee-4f47-9ad3-f1c568e12555}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3276,7 +3277,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3292,30 +3293,30 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3324,41 +3325,41 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3366,7 +3367,7 @@
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>

--- a/cases/templates/template.xlsx
+++ b/cases/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Request Data</t>
   </si>
   <si>
+    <t>Setup Script</t>
+  </si>
+  <si>
     <t>Request Data Crypto</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Teardown Script</t>
   </si>
   <si>
     <t>Expection</t>
@@ -309,6 +315,9 @@
     <t>断言也可以使用变量替换</t>
   </si>
   <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
+  </si>
+  <si>
     <t>sql 语句也可以使用变量替换</t>
   </si>
   <si>
@@ -317,6 +326,19 @@
   </si>
   <si>
     <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
   </si>
   <si>
     <t>比如:
@@ -331,6 +353,9 @@
     <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
 如果需要往内置函数或者自定义函数中传参数，则使用：
 {{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
   </si>
   <si>
     <t xml:space="preserve">sql 语句执行后的返回结果如下：
@@ -1212,28 +1237,28 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.25"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2092,8 +2117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:X97">
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z97">
+  <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
     <tableColumn id="3" name="Description" dataDxfId="2"/>
@@ -2106,6 +2131,7 @@
     <tableColumn id="23" name="Query Str" dataDxfId="9"/>
     <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
     <tableColumn id="8" name="Request Data" dataDxfId="11"/>
+    <tableColumn id="25" name="Setup Script"/>
     <tableColumn id="9" name="Request Data Crypto" dataDxfId="12"/>
     <tableColumn id="22" name="Extract Request Data" dataDxfId="13"/>
     <tableColumn id="10" name="Jsonpath" dataDxfId="14"/>
@@ -2114,6 +2140,7 @@
     <tableColumn id="13" name="Retrieve Value" dataDxfId="17"/>
     <tableColumn id="14" name="SQL" dataDxfId="18"/>
     <tableColumn id="15" name="Sql Params Dict" dataDxfId="19"/>
+    <tableColumn id="26" name="Teardown Script"/>
     <tableColumn id="18" name="Expection" dataDxfId="20"/>
     <tableColumn id="19" name="Response" dataDxfId="21"/>
     <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="22"/>
@@ -2390,31 +2417,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.5851851851852" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.2222222222222" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18.2740740740741" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.1037037037037" style="3" customWidth="1"/>
-    <col min="14" max="24" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.21969696969697" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="4" max="5" width="4.21969696969697" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.88636363636364" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5833333333333" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.8863636363636" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.219696969697" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.219696969697" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5530303030303" style="10" customWidth="1"/>
+    <col min="12" max="13" width="18.2727272727273" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.1060606060606" style="3" customWidth="1"/>
+    <col min="15" max="26" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:24">
+    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2487,241 +2514,251 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:24">
+    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:26">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:24">
+    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>28</v>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:24">
+    <row r="4" ht="26" customHeight="1" spans="1:26">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="M4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" ht="115.5" customHeight="1" spans="1:24">
+    <row r="5" ht="115.5" customHeight="1" spans="1:26">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>28</v>
+      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:24">
+    <row r="6" ht="82.5" customHeight="1" spans="1:26">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="5:24">
+    <row r="7" ht="16.5" customHeight="1" spans="5:26">
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="U7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="W7" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="5:5">
@@ -2744,17 +2781,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="containsBlanks" dxfId="24" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="2">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="3">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"不通过"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
@@ -2767,22 +2804,22 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W$1:W$1048576">
+  <conditionalFormatting sqref="Y$1:Y$1048576">
     <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:X1 A2:X1048576">
-    <cfRule type="containsBlanks" dxfId="27" priority="16">
+  <conditionalFormatting sqref="B1:M1 N$1:Z$1048576 A2:M1048576">
+    <cfRule type="containsBlanks" dxfId="24" priority="16">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="17">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2792,18 +2829,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 M1 E$1:E$1048576 J$1:J$1048576 K$1:K$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 N1 E$1:E$1048576 J$1:J$1048576 K$1:K$1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8:D48 D49:D97">
       <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F48 F49:F97">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"md5,sha1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2823,43 +2860,43 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2867,25 +2904,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:8">
@@ -2893,7 +2930,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2915,7 +2952,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36986a7d-55c3-4e23-8623-f64a32b6f57e}</x14:id>
+          <x14:id>{c6648176-8e11-461f-9116-991c29498043}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2938,7 +2975,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c616edf-29d8-42c4-9d62-6a239cc478e2}</x14:id>
+          <x14:id>{de0b3227-7661-4b78-ab9a-cc73cc07cd04}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2961,7 +2998,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{727802f5-2157-4593-9695-92ae160f6685}</x14:id>
+          <x14:id>{cb272473-51f3-4c73-bb98-140e584937d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2984,7 +3021,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{528c7f05-7ff0-46f9-bb6f-de6c2d683b37}</x14:id>
+          <x14:id>{3578cee4-13ee-476e-a369-18dccc31f3f7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3010,7 +3047,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e44822a1-3590-42af-a881-5e24cc39510b}</x14:id>
+          <x14:id>{6ca5f892-e048-4379-841d-e78cb787dfdd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3033,7 +3070,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{137edcce-87a7-469d-a798-40cd7cf73e7e}</x14:id>
+          <x14:id>{ca95f8e6-f048-457c-be2a-3d21137f09f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3056,7 +3093,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a20ec49-3e4a-40b9-aabc-62b0b4c97f7e}</x14:id>
+          <x14:id>{c7b8d3fc-c9b9-482c-9cbb-034a750e4b0f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3076,7 +3113,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{acdb5446-4d0a-47ab-821a-b61a2d39858c}</x14:id>
+          <x14:id>{751dd220-b9d8-4b76-96f5-9ddff1ea57b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3096,7 +3133,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{035e25f3-918e-4f3b-904e-959b6d18a972}</x14:id>
+          <x14:id>{9f26611a-563e-40e6-b4f5-2caffc332e10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3113,7 +3150,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c518268b-70f8-4e31-8651-b7da2ebef12a}</x14:id>
+          <x14:id>{2e9b480c-f195-4b4f-9db8-9654e6ae6d33}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3136,7 +3173,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71e09422-07ee-4f47-9ad3-f1c568e12555}</x14:id>
+          <x14:id>{f5fd19ae-1636-4c00-afbf-4b33796c0753}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3157,7 +3194,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36986a7d-55c3-4e23-8623-f64a32b6f57e}">
+          <x14:cfRule type="dataBar" id="{c6648176-8e11-461f-9116-991c29498043}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3167,7 +3204,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c616edf-29d8-42c4-9d62-6a239cc478e2}">
+          <x14:cfRule type="dataBar" id="{de0b3227-7661-4b78-ab9a-cc73cc07cd04}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3177,7 +3214,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{727802f5-2157-4593-9695-92ae160f6685}">
+          <x14:cfRule type="dataBar" id="{cb272473-51f3-4c73-bb98-140e584937d9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3187,7 +3224,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{528c7f05-7ff0-46f9-bb6f-de6c2d683b37}">
+          <x14:cfRule type="dataBar" id="{3578cee4-13ee-476e-a369-18dccc31f3f7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3197,7 +3234,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e44822a1-3590-42af-a881-5e24cc39510b}">
+          <x14:cfRule type="dataBar" id="{6ca5f892-e048-4379-841d-e78cb787dfdd}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3207,7 +3244,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{137edcce-87a7-469d-a798-40cd7cf73e7e}">
+          <x14:cfRule type="dataBar" id="{ca95f8e6-f048-457c-be2a-3d21137f09f1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3217,7 +3254,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a20ec49-3e4a-40b9-aabc-62b0b4c97f7e}">
+          <x14:cfRule type="dataBar" id="{c7b8d3fc-c9b9-482c-9cbb-034a750e4b0f}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3227,7 +3264,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{acdb5446-4d0a-47ab-821a-b61a2d39858c}">
+          <x14:cfRule type="dataBar" id="{751dd220-b9d8-4b76-96f5-9ddff1ea57b8}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3237,7 +3274,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{035e25f3-918e-4f3b-904e-959b6d18a972}">
+          <x14:cfRule type="dataBar" id="{9f26611a-563e-40e6-b4f5-2caffc332e10}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3247,7 +3284,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c518268b-70f8-4e31-8651-b7da2ebef12a}">
+          <x14:cfRule type="dataBar" id="{2e9b480c-f195-4b4f-9db8-9654e6ae6d33}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3257,7 +3294,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71e09422-07ee-4f47-9ad3-f1c568e12555}">
+          <x14:cfRule type="dataBar" id="{f5fd19ae-1636-4c00-afbf-4b33796c0753}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3277,46 +3314,46 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3325,41 +3362,47 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3367,7 +3410,7 @@
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3375,30 +3418,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="5">
+    <cfRule type="containsBlanks" dxfId="24" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="26" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
+    <cfRule type="containsBlanks" dxfId="24" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/cases/templates/template.xlsx
+++ b/cases/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="29868" windowHeight="14628" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,26 @@
     <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
   </si>
   <si>
+    <t># 前置脚本代码
+def setup(pm):
+    print("pm----------------&gt;", pm.get_variables())
+    # request_data = pm.get_variables()  # 获取得到请求数据
+    """
+    request_data 的值:  {'Url': '/login',
+     'Headers': '{"Content-Type": "application/json"}',
+      'Query Str': None,
+       'Request Data Type': 'params',
+       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+       }
+    """
+    BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
+    pm.update_environments("BSP_TOKEN_NEWS", BSP_TOKEN + "修改了环境变量")  # 设置环境变量
+    print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    print("----&gt;pm.get_variables", pm.get_variables())
+setup(pm)</t>
+  </si>
+  <si>
     <t>{"BSP_TOKEN": "$.data.bspToken"}</t>
   </si>
   <si>
@@ -172,6 +192,26 @@
   </si>
   <si>
     <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# 后置脚本代码
+def tear_down(pm):
+    vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.get_variables()  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("BSP_TOKEN_NEWS", token + vars_data)  # 重新设置环境变量
+    print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)
+</t>
   </si>
   <si>
     <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
@@ -300,13 +340,18 @@
   </si>
   <si>
     <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
     }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-那么Sql Params Dict可以这么写来提取参数:{"total": "$.select_sale[0].total", "total_1": "$..total"}</t>
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
   </si>
   <si>
     <t>如何使用已提取的参数：</t>
@@ -328,26 +373,17 @@
     <t>替换方式依然是 {{}}，{{fun()}}</t>
   </si>
   <si>
-    <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-  </si>
-  <si>
     <t>比如:
 SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
   </si>
   <si>
     <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
@@ -358,9 +394,8 @@
     <t>后置脚本代码 与前置脚本的差不多</t>
   </si>
   <si>
-    <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
+    <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
   </si>
   <si>
     <t>以下为例子：
@@ -368,6 +403,24 @@
 那么提取请求参数中的 hello 的值可以这么写:
 在提取参数这栏填写：{"hel":"$.hello"}
 那么使用的时候就这样填写：{{hel}}</t>
+  </si>
+  <si>
+    <t># 后置脚本代码
+def tear_down(pm):
+    vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.get_variables()  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("BSP_TOKEN_NEWS", token + vars_data)  # 重新设置环境变量
+    print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)</t>
   </si>
   <si>
     <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
@@ -382,7 +435,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -421,41 +474,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -468,14 +486,6 @@
       <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,6 +530,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
@@ -557,10 +582,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
@@ -590,55 +643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,31 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,6 +697,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,7 +721,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,21 +876,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -866,6 +904,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,155 +966,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1088,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,59 +1162,65 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="标题 5" xfId="9"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="注释 2" xfId="20"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="标题 5" xfId="49"/>
+    <cellStyle name="注释 2" xfId="50"/>
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="76">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -1984,128 +2043,128 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
-    </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="34"/>
-    </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1">
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{B8FC51DE-268B-4913-A26C-B77BC800A332}">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="36"/>
-    </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1">
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{474D132A-B029-45FB-84C2-635E44EC68F0}">
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+    </tableStyle>
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{507A9C6E-D3A0-495E-BC43-E60592C10910}">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="38"/>
-    </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1">
-      <tableStyleElement type="firstColumn" dxfId="39"/>
-    </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="40"/>
-    </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
-    </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
-    </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="43"/>
-    </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="44"/>
-    </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1">
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{5BAA993D-78BA-4531-B7CB-B627496FB88A}">
+      <tableStyleElement type="totalRow" dxfId="38"/>
+    </tableStyle>
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{31B38EE3-B70C-41DB-8EA0-94E74643344B}">
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
+    </tableStyle>
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{785A13B6-F34B-41D8-9BCE-47F49410F1ED}">
+      <tableStyleElement type="firstHeaderCell" dxfId="40"/>
+    </tableStyle>
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{4E253EBC-E336-4A95-86B5-0A3032E06845}">
+      <tableStyleElement type="firstColumn" dxfId="41"/>
+    </tableStyle>
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{E2EDE400-48EB-41BE-BA0B-833E21F2C2C2}">
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
+    </tableStyle>
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{43EB7892-39E6-4641-865B-C8EB22C5D29B}">
+      <tableStyleElement type="secondColumnStripe" dxfId="43"/>
+    </tableStyle>
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{7C913E51-58D1-48C5-BC8A-B69861F79A79}">
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+    </tableStyle>
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{FEE8E4BC-662F-45F6-868F-E97F7721C00E}">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="46"/>
-    </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{B4C504D7-2A3B-4C94-A8C9-6F017E92FF64}">
+      <tableStyleElement type="totalRow" dxfId="46"/>
+    </tableStyle>
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{AE0C2375-A620-4675-88E8-211F8C6263A4}">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="48"/>
-    </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1">
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{B9950589-2D78-40FC-80DE-6BAC5DEE1F21}">
+      <tableStyleElement type="firstHeaderCell" dxfId="48"/>
+    </tableStyle>
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{25E414BB-4A89-4E21-A37D-B84333B768AE}">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1">
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-    </tableStyle>
-    <tableStyle name="商务深色系列1" count="1">
-      <tableStyleElement type="headerRow" dxfId="51"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充05" count="1">
-      <tableStyleElement type="firstColumn" dxfId="52"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充04" count="1">
-      <tableStyleElement type="firstColumn" dxfId="53"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充03" count="1">
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{DD773831-7F36-4106-BF8A-6091E1701811}">
+      <tableStyleElement type="totalRow" dxfId="50"/>
+    </tableStyle>
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{079A74C6-1E10-4D23-A352-10F08840DE41}">
+      <tableStyleElement type="totalRow" dxfId="51"/>
+    </tableStyle>
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{BEDD9C1D-4086-4DE2-A68B-D3EE419832F8}">
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+    </tableStyle>
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{BABD65BB-DE1F-41CA-9A40-8E281D185AC3}">
+      <tableStyleElement type="headerRow" dxfId="53"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{8939CA89-1631-4FF0-AEC2-FED02F673A16}">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
-    </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1">
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{93F80EC7-DF62-462E-9BF8-B1D3E8E4FBCE}">
+      <tableStyleElement type="firstColumn" dxfId="55"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{83B056F1-ACF0-4230-9D6F-735E7B577BDB}">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1">
-      <tableStyleElement type="firstColumn" dxfId="57"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1">
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{107A1BF7-5D15-4E5F-AE16-B89E2B77EF93}">
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+    </tableStyle>
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{D90F6B19-0408-48D8-9F62-C9EA5F382EE8}">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1">
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{4FDDF510-5E0D-4C71-ABB2-08F242D6E8EC}">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1">
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{BF86543C-E4A2-4C0E-A9AD-367322BAAE7A}">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="61"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="62"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="63"/>
-    </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="64"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="65"/>
-    </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1">
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{C35964EA-ED12-4BCF-81A6-C5F6EC4D57B0}">
+      <tableStyleElement type="firstColumn" dxfId="61"/>
+    </tableStyle>
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{FE2379E5-362F-4DF1-BDD6-3DEF13CA2F78}">
+      <tableStyleElement type="firstColumn" dxfId="62"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{A56B923C-9E86-40CE-AA37-738F634015D8}">
+      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{E7BEC043-65D1-4D0E-A7D2-D3841F127FFE}">
+      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{E7AD4DCB-6EC8-4D45-8F46-9BE5F3C7A209}">
+      <tableStyleElement type="firstColumnStripe" dxfId="65"/>
+    </tableStyle>
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{9C55D2A9-2C10-411B-9120-9B06273CF52E}">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
-    </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="68"/>
-    </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="69"/>
-    </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="70"/>
-    </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
-    </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1">
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{E133C845-3F17-4352-8B69-48EC77D8B52B}">
+      <tableStyleElement type="secondColumnStripe" dxfId="67"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{D02C452F-747D-49D7-9E46-06EE36853FE0}">
+      <tableStyleElement type="secondColumnStripe" dxfId="68"/>
+    </tableStyle>
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{604F1689-8877-4096-9424-8B4B4155B315}">
+      <tableStyleElement type="firstColumnStripe" dxfId="69"/>
+    </tableStyle>
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{FB9FF7D9-1116-40B7-89DA-41A7D159AA00}">
+      <tableStyleElement type="secondRowStripe" dxfId="70"/>
+    </tableStyle>
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{E2CF3F72-DC45-4563-A477-279808E062C3}">
+      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+    </tableStyle>
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{26BA6B2C-65CB-4FD0-B504-221FF581BDB5}">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1">
-      <tableStyleElement type="firstColumnStripe" size="2" dxfId="73"/>
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{EC20DE0A-92FE-4ADD-9C89-62ACB27DFF8C}">
+      <tableStyleElement type="secondColumnStripe" dxfId="73"/>
+    </tableStyle>
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{DBB41DC1-630E-49B4-B72B-2DF87BA62484}">
+      <tableStyleElement type="secondColumnStripe" dxfId="74"/>
+    </tableStyle>
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{EA5F751A-2642-4C89-8CF7-91127AD82808}">
+      <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2131,20 +2190,20 @@
     <tableColumn id="23" name="Query Str" dataDxfId="9"/>
     <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
     <tableColumn id="8" name="Request Data" dataDxfId="11"/>
-    <tableColumn id="25" name="Setup Script"/>
-    <tableColumn id="9" name="Request Data Crypto" dataDxfId="12"/>
-    <tableColumn id="22" name="Extract Request Data" dataDxfId="13"/>
-    <tableColumn id="10" name="Jsonpath" dataDxfId="14"/>
-    <tableColumn id="11" name="Regex" dataDxfId="15"/>
-    <tableColumn id="12" name="Regex Params List" dataDxfId="16"/>
-    <tableColumn id="13" name="Retrieve Value" dataDxfId="17"/>
-    <tableColumn id="14" name="SQL" dataDxfId="18"/>
-    <tableColumn id="15" name="Sql Params Dict" dataDxfId="19"/>
-    <tableColumn id="26" name="Teardown Script"/>
-    <tableColumn id="18" name="Expection" dataDxfId="20"/>
-    <tableColumn id="19" name="Response" dataDxfId="21"/>
-    <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="22"/>
-    <tableColumn id="21" name="Log" dataDxfId="23"/>
+    <tableColumn id="25" name="Setup Script" dataDxfId="12"/>
+    <tableColumn id="9" name="Request Data Crypto" dataDxfId="13"/>
+    <tableColumn id="22" name="Extract Request Data" dataDxfId="14"/>
+    <tableColumn id="10" name="Jsonpath" dataDxfId="15"/>
+    <tableColumn id="11" name="Regex" dataDxfId="16"/>
+    <tableColumn id="12" name="Regex Params List" dataDxfId="17"/>
+    <tableColumn id="13" name="Retrieve Value" dataDxfId="18"/>
+    <tableColumn id="14" name="SQL" dataDxfId="19"/>
+    <tableColumn id="15" name="Sql Params Dict" dataDxfId="20"/>
+    <tableColumn id="26" name="Teardown Script" dataDxfId="21"/>
+    <tableColumn id="18" name="Expection" dataDxfId="22"/>
+    <tableColumn id="19" name="Response" dataDxfId="23"/>
+    <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="21" name="Log" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2419,8 +2478,8 @@
   <sheetPr/>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1"/>
@@ -2586,27 +2645,29 @@
       <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y3" s="12" t="s">
         <v>30</v>
@@ -2620,17 +2681,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="10"/>
       <c r="L4" s="10"/>
@@ -2661,10 +2722,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
@@ -2674,25 +2735,28 @@
         <v>34</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="12" t="s">
         <v>30</v>
@@ -2706,32 +2770,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="12" t="s">
         <v>30</v>
@@ -2743,7 +2807,7 @@
     <row r="7" ht="16.5" customHeight="1" spans="5:26">
       <c r="E7" s="10"/>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
@@ -2781,50 +2845,64 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="24" priority="1">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>IF(FIND("TIME",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="2">
+      <formula>IF(FIND("SQL",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
+      <formula>LEN(TRIM(M3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y$1:Y$1048576">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:M1 N$1:Z$1048576 A2:M1048576">
-    <cfRule type="containsBlanks" dxfId="24" priority="16">
+  <conditionalFormatting sqref="B1:M1 N$1:Z$1048576 A2:M2 A3:L3 A4:M1048576">
+    <cfRule type="containsBlanks" dxfId="26" priority="20">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="28" priority="22">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1 D2:D5 D8:D13 D14:E1048576">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2833,14 +2911,14 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8:D48 D49:D97">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F48 F49:F97">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"md5,sha1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2875,28 +2953,28 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2904,22 +2982,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>33</v>
@@ -2930,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2941,7 +3019,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="30" priority="133">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2952,19 +3030,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6648176-8e11-461f-9116-991c29498043}</x14:id>
+          <x14:id>{f3c615f7-e1c0-4605-a096-f7e65a45790b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="135">
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="136">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="30" priority="73">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2975,19 +3053,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de0b3227-7661-4b78-ab9a-cc73cc07cd04}</x14:id>
+          <x14:id>{a96c6195-3a6d-49d5-8e57-bfaa12f70f17}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="75">
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="76">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="30" priority="85">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2998,19 +3076,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb272473-51f3-4c73-bb98-140e584937d9}</x14:id>
+          <x14:id>{47b27477-4ee0-4105-be39-1748184c668c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="87">
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="88">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="30" priority="69">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3021,22 +3099,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3578cee4-13ee-476e-a369-18dccc31f3f7}</x14:id>
+          <x14:id>{5a76293c-7c33-4cab-bc85-b1313fe062bc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="71">
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="72">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="32" priority="60">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="59">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3047,19 +3125,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ca5f892-e048-4379-841d-e78cb787dfdd}</x14:id>
+          <x14:id>{24eaed54-1c41-4187-a8c5-e91510d5c46e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="57">
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="32" priority="68">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="67">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3070,19 +3148,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca95f8e6-f048-457c-be2a-3d21137f09f1}</x14:id>
+          <x14:id>{6bb2773a-8381-4d7f-a90f-26d5a7765d8a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="65">
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="32" priority="64">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="63">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3093,16 +3171,16 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c7b8d3fc-c9b9-482c-9cbb-034a750e4b0f}</x14:id>
+          <x14:id>{6cbca014-ae3c-4925-a010-710bc7c7479a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="61">
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="30" priority="1">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3113,14 +3191,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{751dd220-b9d8-4b76-96f5-9ddff1ea57b8}</x14:id>
+          <x14:id>{a5a6d3a5-ebaf-4993-ba7c-79ad5a7bb6f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3133,13 +3211,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9f26611a-563e-40e6-b4f5-2caffc332e10}</x14:id>
+          <x14:id>{f7a93407-840b-44a0-a762-6ce25df74d82}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="30" priority="142">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3150,19 +3228,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e9b480c-f195-4b4f-9db8-9654e6ae6d33}</x14:id>
+          <x14:id>{72593b6b-3e58-47b7-bafc-b50baf2a30f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="144">
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="145">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="30" priority="77">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3173,14 +3251,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f5fd19ae-1636-4c00-afbf-4b33796c0753}</x14:id>
+          <x14:id>{e217b7b1-6727-41b8-a43a-149cfc32e940}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="79">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="80">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3194,7 +3272,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c6648176-8e11-461f-9116-991c29498043}">
+          <x14:cfRule type="dataBar" id="{f3c615f7-e1c0-4605-a096-f7e65a45790b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3204,7 +3282,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de0b3227-7661-4b78-ab9a-cc73cc07cd04}">
+          <x14:cfRule type="dataBar" id="{a96c6195-3a6d-49d5-8e57-bfaa12f70f17}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3214,7 +3292,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb272473-51f3-4c73-bb98-140e584937d9}">
+          <x14:cfRule type="dataBar" id="{47b27477-4ee0-4105-be39-1748184c668c}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3224,7 +3302,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3578cee4-13ee-476e-a369-18dccc31f3f7}">
+          <x14:cfRule type="dataBar" id="{5a76293c-7c33-4cab-bc85-b1313fe062bc}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3234,7 +3312,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ca5f892-e048-4379-841d-e78cb787dfdd}">
+          <x14:cfRule type="dataBar" id="{24eaed54-1c41-4187-a8c5-e91510d5c46e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3244,7 +3322,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ca95f8e6-f048-457c-be2a-3d21137f09f1}">
+          <x14:cfRule type="dataBar" id="{6bb2773a-8381-4d7f-a90f-26d5a7765d8a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3254,7 +3332,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c7b8d3fc-c9b9-482c-9cbb-034a750e4b0f}">
+          <x14:cfRule type="dataBar" id="{6cbca014-ae3c-4925-a010-710bc7c7479a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3264,7 +3342,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{751dd220-b9d8-4b76-96f5-9ddff1ea57b8}">
+          <x14:cfRule type="dataBar" id="{a5a6d3a5-ebaf-4993-ba7c-79ad5a7bb6f1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3274,7 +3352,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9f26611a-563e-40e6-b4f5-2caffc332e10}">
+          <x14:cfRule type="dataBar" id="{f7a93407-840b-44a0-a762-6ce25df74d82}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3284,7 +3362,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e9b480c-f195-4b4f-9db8-9654e6ae6d33}">
+          <x14:cfRule type="dataBar" id="{72593b6b-3e58-47b7-bafc-b50baf2a30f1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3294,7 +3372,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f5fd19ae-1636-4c00-afbf-4b33796c0753}">
+          <x14:cfRule type="dataBar" id="{e217b7b1-6727-41b8-a43a-149cfc32e940}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3314,8 +3392,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -3330,30 +3408,30 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3362,55 +3440,57 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3418,30 +3498,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="5">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="24" priority="1">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/cases/templates/template.xlsx
+++ b/cases/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="14628" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -42,25 +42,25 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>Headers Crypto</t>
-  </si>
-  <si>
-    <t>Query Str</t>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Setup Script</t>
-  </si>
-  <si>
-    <t>Request Data Crypto</t>
-  </si>
-  <si>
-    <t>Extract Request Data</t>
+    <t>HeadersCrypto</t>
+  </si>
+  <si>
+    <t>QueryString</t>
+  </si>
+  <si>
+    <t>RequestDataType</t>
+  </si>
+  <si>
+    <t>RequestData</t>
+  </si>
+  <si>
+    <t>SetupScript</t>
+  </si>
+  <si>
+    <t>RequestDataCrypto</t>
+  </si>
+  <si>
+    <t>ExtractRequestData</t>
   </si>
   <si>
     <t>Jsonpath</t>
@@ -69,22 +69,22 @@
     <t>Regex</t>
   </si>
   <si>
-    <t>Regex Params List</t>
-  </si>
-  <si>
-    <t>Retrieve Value</t>
+    <t>RegexParamsList</t>
+  </si>
+  <si>
+    <t>RetrieveValue</t>
   </si>
   <si>
     <t>SQL</t>
   </si>
   <si>
-    <t>Sql Params Dict</t>
-  </si>
-  <si>
-    <t>Teardown Script</t>
-  </si>
-  <si>
-    <t>Expection</t>
+    <t>SqlParamsDict</t>
+  </si>
+  <si>
+    <t>TeardownScript</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
   <si>
     <t>Response</t>
@@ -93,7 +93,7 @@
     <t>Assertion</t>
   </si>
   <si>
-    <t>Log</t>
+    <t>ErrorLog</t>
   </si>
   <si>
     <t>清表</t>
@@ -232,28 +232,22 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>initialize_data</t>
-  </si>
-  <si>
-    <t>run</t>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Sheets</t>
+  </si>
+  <si>
+    <t>InitializeData</t>
   </si>
   <si>
     <t>TEST</t>
@@ -1121,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1142,6 +1136,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,6 +1293,27 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="3" tint="0.25"/>
         </patternFill>
       </fill>
@@ -1303,27 +1321,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
@@ -1338,7 +1335,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.15"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1356,7 +1353,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6"/>
+          <bgColor theme="0" tint="-0.15"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,127 +2040,127 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{B8FC51DE-268B-4913-A26C-B77BC800A332}">
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{F5F05D24-36FB-4154-B26A-C2E74954F72B}">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{474D132A-B029-45FB-84C2-635E44EC68F0}">
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{E64AE42A-3033-49AB-A7DB-4D73F6C80DAA}">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{507A9C6E-D3A0-495E-BC43-E60592C10910}">
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{95522198-70A5-4CC0-ABA0-51DCBB4EE744}">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{5BAA993D-78BA-4531-B7CB-B627496FB88A}">
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{88EE082B-6D86-40EC-A5F3-9266560B3CF2}">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{31B38EE3-B70C-41DB-8EA0-94E74643344B}">
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{15D2F245-D508-4030-AA89-4E8838CFDBF2}">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{785A13B6-F34B-41D8-9BCE-47F49410F1ED}">
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{D52BD39B-5C09-4A55-81F5-96921A934BBB}">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{4E253EBC-E336-4A95-86B5-0A3032E06845}">
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{FF61FC2E-03A2-42C2-BDE0-C87926775C8D}">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{E2EDE400-48EB-41BE-BA0B-833E21F2C2C2}">
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{32F1D9B5-DFED-46A1-B28F-980A0D6DC8D7}">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{43EB7892-39E6-4641-865B-C8EB22C5D29B}">
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{230795EF-B35A-4273-93C8-108C9DD4A1DF}">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{7C913E51-58D1-48C5-BC8A-B69861F79A79}">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{913F1731-E2DB-4029-9F52-0396959AF72E}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{FEE8E4BC-662F-45F6-868F-E97F7721C00E}">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{C4BC9345-9CE2-49BE-BA02-EECAAE9F4B2A}">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{B4C504D7-2A3B-4C94-A8C9-6F017E92FF64}">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{E5256604-351D-4FE6-A362-D47525F74832}">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{AE0C2375-A620-4675-88E8-211F8C6263A4}">
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{A28FB04B-3228-4169-A08D-D07FF94FFF6E}">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1" xr9:uid="{B9950589-2D78-40FC-80DE-6BAC5DEE1F21}">
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{5BD85609-D970-48D8-B7F7-EC94D4AB7B1B}">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{25E414BB-4A89-4E21-A37D-B84333B768AE}">
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{484C98E3-B665-42C3-ABD5-9F8D412167BE}">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{DD773831-7F36-4106-BF8A-6091E1701811}">
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{7381F519-2879-43CE-8596-8F1EC5C4A575}">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{079A74C6-1E10-4D23-A352-10F08840DE41}">
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{BFDD85EC-0C4F-4945-B79D-60B2747D2BD3}">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1" xr9:uid="{BEDD9C1D-4086-4DE2-A68B-D3EE419832F8}">
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{CED39B64-BCF1-4076-A642-3EB7FE6276AA}">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1" xr9:uid="{BABD65BB-DE1F-41CA-9A40-8E281D185AC3}">
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{C4D8C490-B7F2-4D49-8946-AE7D06052C32}">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1" xr9:uid="{8939CA89-1631-4FF0-AEC2-FED02F673A16}">
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{BBA275F7-AC57-4727-9252-95A599E65E88}">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1" xr9:uid="{93F80EC7-DF62-462E-9BF8-B1D3E8E4FBCE}">
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{40D014FC-492A-41D7-AAC0-23185C6D4082}">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1" xr9:uid="{83B056F1-ACF0-4230-9D6F-735E7B577BDB}">
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{0877D6AB-888C-4652-9341-E2A35AC25B3E}">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{107A1BF7-5D15-4E5F-AE16-B89E2B77EF93}">
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{FB9744FD-9538-4DB0-8A4E-22D1F660896D}">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{D90F6B19-0408-48D8-9F62-C9EA5F382EE8}">
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{F589A387-58D3-4B83-B9A3-9925B355FA8E}">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{4FDDF510-5E0D-4C71-ABB2-08F242D6E8EC}">
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{398FC04F-C215-4227-BCA1-ECD7ED065BA2}">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{BF86543C-E4A2-4C0E-A9AD-367322BAAE7A}">
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{E612D9DD-E249-47F7-A656-F971DB6BB8EA}">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{C35964EA-ED12-4BCF-81A6-C5F6EC4D57B0}">
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{11ABD671-0750-40D9-A18C-90573C9ADC2D}">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1" xr9:uid="{FE2379E5-362F-4DF1-BDD6-3DEF13CA2F78}">
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{4321DDBD-1977-4EEC-8F15-131C742FBFE8}">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{A56B923C-9E86-40CE-AA37-738F634015D8}">
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{A03B373F-7499-481B-B6E3-7CD66550DEFC}">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{E7BEC043-65D1-4D0E-A7D2-D3841F127FFE}">
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{19424F08-EFDB-490E-AAE5-C5E24ED73619}">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{E7AD4DCB-6EC8-4D45-8F46-9BE5F3C7A209}">
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{17D43728-01A9-45D9-A27A-A12EA4E15783}">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{9C55D2A9-2C10-411B-9120-9B06273CF52E}">
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{B178DE8F-86AF-4B41-BA83-E1764112C548}">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{E133C845-3F17-4352-8B69-48EC77D8B52B}">
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{AD350C1B-22BF-4CFA-B06C-61F28E61115C}">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{D02C452F-747D-49D7-9E46-06EE36853FE0}">
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{BB0DFEE4-BD1B-455C-AC39-50DB668A8C14}">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{604F1689-8877-4096-9424-8B4B4155B315}">
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{06AD0FB6-5F0A-4079-925C-DD98B44DE450}">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{FB9FF7D9-1116-40B7-89DA-41A7D159AA00}">
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{E4F47103-19B2-4A79-890F-A26FDF97B630}">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{E2CF3F72-DC45-4563-A477-279808E062C3}">
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{169C7BD6-726D-424D-A67D-5B036B2F29A5}">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{26BA6B2C-65CB-4FD0-B504-221FF581BDB5}">
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{B973B057-6E0C-41FB-8CA1-F79CB016DEA1}">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{EC20DE0A-92FE-4ADD-9C89-62ACB27DFF8C}">
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{973A6F21-F6C2-4EDE-8265-A60646B4302A}">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{DBB41DC1-630E-49B4-B72B-2DF87BA62484}">
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{C2BA688A-5765-494C-A886-C2DF590C9266}">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{EA5F751A-2642-4C89-8CF7-91127AD82808}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{2A94B68D-321D-47A4-A3AB-B3378148EB7C}">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
@@ -2186,24 +2183,24 @@
     <tableColumn id="5" name="Method" dataDxfId="5"/>
     <tableColumn id="6" name="Url" dataDxfId="6"/>
     <tableColumn id="7" name="Headers" dataDxfId="7"/>
-    <tableColumn id="17" name="Headers Crypto" dataDxfId="8"/>
-    <tableColumn id="23" name="Query Str" dataDxfId="9"/>
-    <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
-    <tableColumn id="8" name="Request Data" dataDxfId="11"/>
-    <tableColumn id="25" name="Setup Script" dataDxfId="12"/>
-    <tableColumn id="9" name="Request Data Crypto" dataDxfId="13"/>
-    <tableColumn id="22" name="Extract Request Data" dataDxfId="14"/>
+    <tableColumn id="17" name="HeadersCrypto" dataDxfId="8"/>
+    <tableColumn id="23" name="QueryString" dataDxfId="9"/>
+    <tableColumn id="16" name="RequestDataType" dataDxfId="10"/>
+    <tableColumn id="8" name="RequestData" dataDxfId="11"/>
+    <tableColumn id="25" name="SetupScript" dataDxfId="12"/>
+    <tableColumn id="9" name="RequestDataCrypto" dataDxfId="13"/>
+    <tableColumn id="22" name="ExtractRequestData" dataDxfId="14"/>
     <tableColumn id="10" name="Jsonpath" dataDxfId="15"/>
     <tableColumn id="11" name="Regex" dataDxfId="16"/>
-    <tableColumn id="12" name="Regex Params List" dataDxfId="17"/>
-    <tableColumn id="13" name="Retrieve Value" dataDxfId="18"/>
+    <tableColumn id="12" name="RegexParamsList" dataDxfId="17"/>
+    <tableColumn id="13" name="RetrieveValue" dataDxfId="18"/>
     <tableColumn id="14" name="SQL" dataDxfId="19"/>
-    <tableColumn id="15" name="Sql Params Dict" dataDxfId="20"/>
-    <tableColumn id="26" name="Teardown Script" dataDxfId="21"/>
-    <tableColumn id="18" name="Expection" dataDxfId="22"/>
+    <tableColumn id="15" name="SqlParamsDict" dataDxfId="20"/>
+    <tableColumn id="26" name="TeardownScript" dataDxfId="21"/>
+    <tableColumn id="18" name="Expected" dataDxfId="22"/>
     <tableColumn id="19" name="Response" dataDxfId="23"/>
     <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="24"/>
-    <tableColumn id="21" name="Log" dataDxfId="25"/>
+    <tableColumn id="21" name="ErrorLog" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2478,105 +2475,105 @@
   <sheetPr/>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.21969696969697" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="4" max="5" width="4.21969696969697" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.88636363636364" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.5833333333333" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.8863636363636" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.219696969697" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.219696969697" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5530303030303" style="10" customWidth="1"/>
-    <col min="12" max="13" width="18.2727272727273" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.1060606060606" style="3" customWidth="1"/>
-    <col min="15" max="26" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5851851851852" style="11" customWidth="1"/>
+    <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.2222222222222" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5555555555556" style="11" customWidth="1"/>
+    <col min="12" max="13" width="18.2740740740741" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.1037037037037" style="3" customWidth="1"/>
+    <col min="15" max="26" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" ht="54" customHeight="1" spans="1:26">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2593,28 +2590,28 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
+    <row r="3" s="10" customFormat="1" ht="26" customHeight="1" spans="1:26">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2627,11 +2624,11 @@
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2639,7 +2636,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -2666,13 +2663,13 @@
       <c r="W3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2680,40 +2677,40 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10" t="s">
+      <c r="H4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2730,17 +2727,17 @@
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -2755,13 +2752,13 @@
       <c r="W5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2778,142 +2775,167 @@
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="Z6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="5:26">
-      <c r="E7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>100</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Y7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="5:5">
-      <c r="E8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="5:5">
-      <c r="E9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="5:5">
-      <c r="E10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="5:5">
-      <c r="E11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="5:5">
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="5:5">
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="3">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="29" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:Z1">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+      <formula>"不通过"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="8">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
-      <formula>"不通过"</formula>
+    <cfRule type="containsBlanks" dxfId="29" priority="6">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E1">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+      <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="11">
       <formula>LEN(TRIM(M3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y$1:Y$1048576">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+  <conditionalFormatting sqref="Y2:Y1048576">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:M1 N$1:Z$1048576 A2:M2 A3:L3 A4:M1048576">
-    <cfRule type="containsBlanks" dxfId="26" priority="20">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+  <conditionalFormatting sqref="N2:Z1048576 A2:M2 A3:L3 A4:M1048576">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="31">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E1 D2:D5 D8:D13 D14:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+  <conditionalFormatting sqref="D2:D5 D8:D13 D14:E1048576">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 N1 E$1:E$1048576 J$1:J$1048576 K$1:K$1048576"/>
+  <dataValidations count="6">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8:D48 D49:D97">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8:F48 F49:F97">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 J2:J1048576 K2:K1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
@@ -2934,47 +2956,47 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>67</v>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2982,22 +3004,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>33</v>
@@ -3008,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3018,11 +3040,28 @@
       <c r="H3" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8d21b1f9-19e9-479e-97ba-a7225d2f5d2e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
-      <formula>LEN(TRIM(G1))=0</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="expression" dxfId="32" priority="8">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="7">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3030,158 +3069,20 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3c615f7-e1c0-4605-a096-f7e65a45790b}</x14:id>
+          <x14:id>{8f4b1f7c-cf7a-4ea5-b1e9-eca76b04a9f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
-      <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    <cfRule type="containsBlanks" dxfId="34" priority="5">
+      <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
-      <formula>LEN(TRIM(H1))=0</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a96c6195-3a6d-49d5-8e57-bfaa12f70f17}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    <cfRule type="expression" dxfId="32" priority="4">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
-      <formula>LEN(TRIM(G2))=0</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47b27477-4ee0-4105-be39-1748184c668c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
-      <formula>IF(FIND("SQL",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
-      <formula>IF(FIND("TIME",$F2),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
-      <formula>LEN(TRIM(H2))=0</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a76293c-7c33-4cab-bc85-b1313fe062bc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
-      <formula>IF(FIND("SQL",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
-      <formula>IF(FIND("TIME",$F2),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
-      <formula>IF(FIND("TIME",$F3),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
-      <formula>IF(FIND("SQL",$F3),1,0)</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24eaed54-1c41-4187-a8c5-e91510d5c46e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
-      <formula>LEN(TRIM(D3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
-      <formula>IF(FIND("TIME",$F3),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
-      <formula>IF(FIND("SQL",$F3),1,0)</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6bb2773a-8381-4d7f-a90f-26d5a7765d8a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
-      <formula>LEN(TRIM(E3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
-      <formula>IF(FIND("TIME",$F3),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
-      <formula>IF(FIND("SQL",$F3),1,0)</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6cbca014-ae3c-4925-a010-710bc7c7479a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
-      <formula>LEN(TRIM(G3))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
-      <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -3191,19 +3092,154 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5a6d3a5-ebaf-4993-ba7c-79ad5a7bb6f1}</x14:id>
+          <x14:id>{f63ed6f9-e2a0-4bd1-9ee3-c8027eab6dd7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="containsBlanks" dxfId="34" priority="1">
+      <formula>LEN(TRIM(H1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="containsBlanks" dxfId="34" priority="98">
+      <formula>LEN(TRIM(G2))=0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d72673c7-4dc6-4b14-ac11-0f19dc12cb37}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="100">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="101">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="containsBlanks" dxfId="34" priority="82">
+      <formula>LEN(TRIM(H2))=0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f896d5ea-0d4d-40b1-ba78-9fe21ebacb60}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="84">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="85">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="32" priority="73">
+      <formula>IF(FIND("TIME",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="72">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4e650208-6057-46d0-b467-ddad52e936a0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="34" priority="70">
+      <formula>LEN(TRIM(D3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F3">
+    <cfRule type="expression" dxfId="32" priority="81">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="33" priority="80">
+      <formula>IF(FIND("SQL",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{60699696-6081-4a3d-9e88-49e17f418356}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="34" priority="78">
+      <formula>LEN(TRIM(E3))=0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="dataBar" priority="141">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="32" priority="77">
+      <formula>IF(FIND("TIME",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="76">
+      <formula>IF(FIND("SQL",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6d4b551d-28ab-424e-bfbe-466d2b03f3c0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="34" priority="74">
+      <formula>LEN(TRIM(G3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsBlanks" dxfId="34" priority="14">
+      <formula>LEN(TRIM(H3))=0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cd9b016d-1917-4739-bdb9-34e137014762}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="16">
+      <formula>IF(FIND("SQL",$F3),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="17">
+      <formula>IF(FIND("TIME",$F3),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3211,16 +3247,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f7a93407-840b-44a0-a762-6ce25df74d82}</x14:id>
+          <x14:id>{a4aa45e9-4431-4889-950b-d5c1c59127cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="143">
+  <conditionalFormatting sqref="A1:D1 E1:F1">
+    <cfRule type="expression" dxfId="32" priority="13">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="12">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3228,22 +3267,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72593b6b-3e58-47b7-bafc-b50baf2a30f1}</x14:id>
+          <x14:id>{f5916319-a5bb-4121-9299-4d250deff344}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
-      <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    <cfRule type="containsBlanks" dxfId="34" priority="10">
+      <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
-      <formula>LEN(TRIM(C2))=0</formula>
-    </cfRule>
-    <cfRule type="dataBar" priority="78">
+  <conditionalFormatting sqref="A2:B3 E2:F2">
+    <cfRule type="containsBlanks" dxfId="34" priority="155">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3251,14 +3287,37 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e217b7b1-6727-41b8-a43a-149cfc32e940}</x14:id>
+          <x14:id>{d65a83cd-bdba-44bc-9017-7f8f9132eab5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    <cfRule type="expression" dxfId="33" priority="157">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" dxfId="32" priority="158">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2 C3">
+    <cfRule type="containsBlanks" dxfId="34" priority="90">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d36e120c-076e-4daa-bafe-dd43e479cac1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="92">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="93">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3272,7 +3331,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f3c615f7-e1c0-4605-a096-f7e65a45790b}">
+          <x14:cfRule type="dataBar" id="{8d21b1f9-19e9-479e-97ba-a7225d2f5d2e}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8f4b1f7c-cf7a-4ea5-b1e9-eca76b04a9f5}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3282,7 +3351,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a96c6195-3a6d-49d5-8e57-bfaa12f70f17}">
+          <x14:cfRule type="dataBar" id="{f63ed6f9-e2a0-4bd1-9ee3-c8027eab6dd7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3292,7 +3361,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{47b27477-4ee0-4105-be39-1748184c668c}">
+          <x14:cfRule type="dataBar" id="{d72673c7-4dc6-4b14-ac11-0f19dc12cb37}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3302,7 +3371,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a76293c-7c33-4cab-bc85-b1313fe062bc}">
+          <x14:cfRule type="dataBar" id="{f896d5ea-0d4d-40b1-ba78-9fe21ebacb60}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3312,7 +3381,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24eaed54-1c41-4187-a8c5-e91510d5c46e}">
+          <x14:cfRule type="dataBar" id="{4e650208-6057-46d0-b467-ddad52e936a0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3322,7 +3391,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6bb2773a-8381-4d7f-a90f-26d5a7765d8a}">
+          <x14:cfRule type="dataBar" id="{60699696-6081-4a3d-9e88-49e17f418356}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3332,7 +3401,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6cbca014-ae3c-4925-a010-710bc7c7479a}">
+          <x14:cfRule type="dataBar" id="{6d4b551d-28ab-424e-bfbe-466d2b03f3c0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3342,7 +3411,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5a6d3a5-ebaf-4993-ba7c-79ad5a7bb6f1}">
+          <x14:cfRule type="dataBar" id="{cd9b016d-1917-4739-bdb9-34e137014762}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3352,27 +3421,37 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f7a93407-840b-44a0-a762-6ce25df74d82}">
+          <x14:cfRule type="dataBar" id="{a4aa45e9-4431-4889-950b-d5c1c59127cb}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
+          <xm:sqref>A2:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{72593b6b-3e58-47b7-bafc-b50baf2a30f1}">
+          <x14:cfRule type="dataBar" id="{f5916319-a5bb-4121-9299-4d250deff344}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+          <xm:sqref>A1:D1 E1:F1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e217b7b1-6727-41b8-a43a-149cfc32e940}">
+          <x14:cfRule type="dataBar" id="{d65a83cd-bdba-44bc-9017-7f8f9132eab5}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A2:B3 E2:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d36e120c-076e-4daa-bafe-dd43e479cac1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3392,46 +3471,46 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3440,57 +3519,57 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" ht="181.5" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="165" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3498,30 +3577,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" dxfId="29" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
